--- a/Dataset/Authors/FEST.xlsx
+++ b/Dataset/Authors/FEST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Vetus_Archivum_Oniga\Auctores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Auctores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6BDC5C-A6AF-48F6-A02E-BAFC13847A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E24B46-E6A2-42AF-B056-FFF0C0C74C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{462F57CE-B469-4D9A-913A-3505E46B5825}"/>
   </bookViews>
@@ -438,9 +438,6 @@
     <t>aristophorum</t>
   </si>
   <si>
-    <t>centumvir</t>
-  </si>
-  <si>
     <t>Diusfidius</t>
   </si>
   <si>
@@ -460,6 +457,9 @@
   </si>
   <si>
     <t>teruncius</t>
+  </si>
+  <si>
+    <t>centumviri</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B39" s="7">
         <v>1</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B45" s="7">
         <v>1</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B46" s="7">
         <v>1</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B79" s="7">
         <v>1</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B89" s="7">
         <v>1</v>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B92" s="7">
         <v>1</v>
@@ -1819,7 +1819,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B118" s="7">
         <v>1</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B133" s="7">
         <v>1</v>
@@ -2003,7 +2003,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B140">
-    <sortCondition ref="A6:A140"/>
+    <sortCondition ref="A44:A140"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
